--- a/src/telling.xlsx
+++ b/src/telling.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\907070\source\repos\Movares\Hackathon2023\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\Hackathon2023\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76F9B06A-D711-43CA-9686-BEF4DCA6A480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D71A4D7-AF37-4382-B633-FB9D204BD09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90E8BD96-F14A-4E61-B10F-28C39CA62F56}"/>
   </bookViews>
@@ -126,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,8 +145,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -154,17 +160,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -180,7 +226,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -476,333 +522,493 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C13C697-09AF-403B-9877-7BFC2BF7F74B}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="11" max="12" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2" s="3">
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3" s="3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="L4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="L5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
+      <c r="B6" s="3">
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
+      <c r="B7" s="3">
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
+      <c r="B8" s="3">
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3">
+        <v>92</v>
+      </c>
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
+      <c r="B9" s="3">
+        <v>112</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3">
+        <v>162</v>
+      </c>
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9">
+        <v>87</v>
+      </c>
+      <c r="K9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
+      <c r="B10" s="3">
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10">
+        <v>69</v>
+      </c>
+      <c r="K10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
+      <c r="B11" s="3">
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3">
         <v>12</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
+      <c r="B13" s="3">
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
+      <c r="B14" s="3">
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3">
+        <v>5</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
+      <c r="B16" s="3">
+        <v>81</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
         <v>15</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
+      <c r="B17" s="3">
+        <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3">
+        <v>61</v>
+      </c>
+      <c r="K17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="2" t="s">
+      <c r="L17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F18" t="s">
+      <c r="L18" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>17</v>
+      <c r="B19" s="3">
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="5">
+        <v>9</v>
+      </c>
+      <c r="K19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>18</v>
+      <c r="B20" s="3">
+        <v>49</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="6">
+        <v>60</v>
+      </c>
+      <c r="K20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>19</v>
+      <c r="B21" s="3">
+        <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="6">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
         <v>19</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21">
+        <v>118</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
         <v>19</v>
       </c>
     </row>
